--- a/assets/finformatika.ru/files/10-11/task_data/1/3113.xlsx
+++ b/assets/finformatika.ru/files/10-11/task_data/1/3113.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_146F88A2064C5BF626D669FEFCE4B74B7517FE65" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{46565B8F-C173-448A-98E5-72A22232E4E7}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA_Work\2017_ФГ_Информатика\1_Отчет\3-й этап\ЦОР_Решения к УП_new\Модуль 10-11\Исходные данные\1_Информация\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-465" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Кэшбэк по банковской карте" sheetId="1" r:id="rId1"/>
@@ -18,7 +22,7 @@
     <definedName name="tab_doll">[1]Ставки_по_депозиту_в_руб_и_долл!$A$56:$J$67</definedName>
     <definedName name="tab_rub">[1]Ставки_по_депозиту_в_руб_и_долл!$A$38:$J$49</definedName>
   </definedNames>
-  <calcPr calcId="179016" concurrentCalc="0"/>
+  <calcPr calcId="179016"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,8 +88,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +130,8 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,6 +140,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -570,15 +578,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -592,15 +591,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -617,16 +607,34 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Гиперссылка" xfId="17" builtinId="8" hidden="1"/>
@@ -1866,14 +1874,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A15" sqref="A15:F15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
@@ -1884,89 +1892,86 @@
     <col min="8" max="9" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15"/>
-    <row r="2" spans="1:9" ht="18.75">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15"/>
-    <row r="4" spans="1:9" ht="15">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-    </row>
-    <row r="5" spans="1:9" ht="15">
-      <c r="A5" s="18" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15"/>
-    <row r="10" spans="1:9" ht="15">
-      <c r="A10" s="31" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="32"/>
-    </row>
-    <row r="11" spans="1:9" ht="27.95" customHeight="1">
-      <c r="A11" s="27" t="s">
+      <c r="B10" s="33"/>
+    </row>
+    <row r="11" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="28"/>
-    </row>
-    <row r="12" spans="1:9" ht="27.95" customHeight="1">
-      <c r="A12" s="29" t="s">
+      <c r="B11" s="22"/>
+    </row>
+    <row r="12" spans="1:9" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="30"/>
-    </row>
-    <row r="13" spans="1:9" ht="15"/>
-    <row r="14" spans="1:9" ht="15"/>
-    <row r="15" spans="1:9" s="5" customFormat="1" ht="30">
+      <c r="B12" s="24"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:9" s="5" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
@@ -1974,10 +1979,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>15</v>
@@ -1987,8 +1992,8 @@
       </c>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" s="33">
+    <row r="16" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
         <v>42767</v>
       </c>
       <c r="B16" s="3" t="str">
@@ -2000,10 +2005,10 @@
       <c r="E16" s="3">
         <v>67815</v>
       </c>
-      <c r="F16" s="26"/>
-    </row>
-    <row r="17" spans="1:6" ht="15">
-      <c r="A17" s="34">
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
         <v>42768</v>
       </c>
       <c r="B17" s="2" t="str">
@@ -2018,12 +2023,12 @@
         <f>E16-C17+D17</f>
         <v>65815</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15">
-      <c r="A18" s="34">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
         <v>42769</v>
       </c>
       <c r="B18" s="2" t="str">
@@ -2038,10 +2043,10 @@
         <f t="shared" ref="E18:E43" si="1">E17-C18+D18</f>
         <v>64815</v>
       </c>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" ht="15">
-      <c r="A19" s="34">
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
         <v>42770</v>
       </c>
       <c r="B19" s="2" t="str">
@@ -2054,10 +2059,10 @@
         <f t="shared" si="1"/>
         <v>64815</v>
       </c>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" ht="15">
-      <c r="A20" s="34">
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
         <v>42771</v>
       </c>
       <c r="B20" s="2" t="str">
@@ -2070,10 +2075,10 @@
         <f t="shared" si="1"/>
         <v>64815</v>
       </c>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" ht="15">
-      <c r="A21" s="34">
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
         <v>42772</v>
       </c>
       <c r="B21" s="2" t="str">
@@ -2088,12 +2093,12 @@
         <f t="shared" si="1"/>
         <v>63715</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15">
-      <c r="A22" s="34">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
         <v>42773</v>
       </c>
       <c r="B22" s="2" t="str">
@@ -2108,12 +2113,12 @@
         <f t="shared" si="1"/>
         <v>63365</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15">
-      <c r="A23" s="34">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
         <v>42774</v>
       </c>
       <c r="B23" s="2" t="str">
@@ -2128,12 +2133,12 @@
         <f t="shared" si="1"/>
         <v>63015</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15">
-      <c r="A24" s="34">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="26">
         <v>42775</v>
       </c>
       <c r="B24" s="2" t="str">
@@ -2148,12 +2153,12 @@
         <f t="shared" si="1"/>
         <v>62665</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15">
-      <c r="A25" s="34">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
         <v>42776</v>
       </c>
       <c r="B25" s="2" t="str">
@@ -2170,12 +2175,12 @@
         <f t="shared" si="1"/>
         <v>84965</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15">
-      <c r="A26" s="34">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="26">
         <v>42777</v>
       </c>
       <c r="B26" s="2" t="str">
@@ -2188,10 +2193,10 @@
         <f t="shared" si="1"/>
         <v>84965</v>
       </c>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" ht="15">
-      <c r="A27" s="34">
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="26">
         <v>42778</v>
       </c>
       <c r="B27" s="2" t="str">
@@ -2204,10 +2209,10 @@
         <f t="shared" si="1"/>
         <v>84965</v>
       </c>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:6" ht="15">
-      <c r="A28" s="34">
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="26">
         <v>42779</v>
       </c>
       <c r="B28" s="2" t="str">
@@ -2222,12 +2227,12 @@
         <f t="shared" si="1"/>
         <v>79265</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15">
-      <c r="A29" s="34">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="26">
         <v>42780</v>
       </c>
       <c r="B29" s="2" t="str">
@@ -2242,12 +2247,12 @@
         <f t="shared" si="1"/>
         <v>78915</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15">
-      <c r="A30" s="34">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="26">
         <v>42781</v>
       </c>
       <c r="B30" s="2" t="str">
@@ -2262,12 +2267,12 @@
         <f t="shared" si="1"/>
         <v>78565</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15">
-      <c r="A31" s="34">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="26">
         <v>42782</v>
       </c>
       <c r="B31" s="2" t="str">
@@ -2282,12 +2287,12 @@
         <f t="shared" si="1"/>
         <v>78215</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15">
-      <c r="A32" s="34">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="26">
         <v>42783</v>
       </c>
       <c r="B32" s="2" t="str">
@@ -2302,12 +2307,12 @@
         <f t="shared" si="1"/>
         <v>77865</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15">
-      <c r="A33" s="34">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="26">
         <v>42784</v>
       </c>
       <c r="B33" s="2" t="str">
@@ -2322,10 +2327,10 @@
         <f t="shared" si="1"/>
         <v>82865</v>
       </c>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:6" ht="15">
-      <c r="A34" s="34">
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="26">
         <v>42785</v>
       </c>
       <c r="B34" s="2" t="str">
@@ -2338,10 +2343,10 @@
         <f t="shared" si="1"/>
         <v>82865</v>
       </c>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="1:6" ht="15">
-      <c r="A35" s="34">
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="26">
         <v>42786</v>
       </c>
       <c r="B35" s="2" t="str">
@@ -2356,12 +2361,12 @@
         <f t="shared" si="1"/>
         <v>82515</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15">
-      <c r="A36" s="34">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="26">
         <v>42787</v>
       </c>
       <c r="B36" s="2" t="str">
@@ -2376,12 +2381,12 @@
         <f t="shared" si="1"/>
         <v>82165</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15">
-      <c r="A37" s="34">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="26">
         <v>42788</v>
       </c>
       <c r="B37" s="2" t="str">
@@ -2396,12 +2401,12 @@
         <f t="shared" si="1"/>
         <v>69865</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15">
-      <c r="A38" s="34">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="26">
         <v>42789</v>
       </c>
       <c r="B38" s="2" t="str">
@@ -2416,12 +2421,12 @@
         <f t="shared" si="1"/>
         <v>69515</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15">
-      <c r="A39" s="34">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="26">
         <v>42790</v>
       </c>
       <c r="B39" s="2" t="str">
@@ -2438,12 +2443,12 @@
         <f t="shared" si="1"/>
         <v>104165</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15">
-      <c r="A40" s="34">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="26">
         <v>42791</v>
       </c>
       <c r="B40" s="2" t="str">
@@ -2456,10 +2461,10 @@
         <f t="shared" si="1"/>
         <v>104165</v>
       </c>
-      <c r="F40" s="14"/>
-    </row>
-    <row r="41" spans="1:6" ht="15">
-      <c r="A41" s="34">
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="26">
         <v>42792</v>
       </c>
       <c r="B41" s="2" t="str">
@@ -2472,10 +2477,10 @@
         <f t="shared" si="1"/>
         <v>104165</v>
       </c>
-      <c r="F41" s="14"/>
-    </row>
-    <row r="42" spans="1:6" ht="15">
-      <c r="A42" s="34">
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="26">
         <v>42793</v>
       </c>
       <c r="B42" s="2" t="str">
@@ -2490,31 +2495,30 @@
         <f t="shared" si="1"/>
         <v>103815</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15">
-      <c r="A43" s="35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="27">
         <v>42794</v>
       </c>
-      <c r="B43" s="36" t="str">
+      <c r="B43" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Списание</v>
       </c>
-      <c r="C43" s="36">
+      <c r="C43" s="28">
         <v>350</v>
       </c>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36">
+      <c r="D43" s="28"/>
+      <c r="E43" s="28">
         <f t="shared" si="1"/>
         <v>103465</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A4:C4"/>
